--- a/New Microsoft Office Excel Worksheet (3) (1).xlsx
+++ b/New Microsoft Office Excel Worksheet (3) (1).xlsx
@@ -40732,7 +40732,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>23151</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -40790,7 +40790,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>5130</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -40908,7 +40908,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>11037</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -40937,7 +40937,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>7738</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -40966,7 +40966,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>13590</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>42394</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41024,7 +41024,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>23169</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41053,7 +41053,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>31573</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41082,7 +41082,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>18592</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41111,7 +41111,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>9013</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41140,7 +41140,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>4954</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41169,7 +41169,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>28892</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41198,7 +41198,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>10391</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41227,7 +41227,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>29989</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41256,7 +41256,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>6732</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -41401,7 +41401,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>27567</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -46766,7 +46766,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>27224</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>19515</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -48044,7 +48044,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>19868</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -48104,7 +48104,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>7010</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
